--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fcer2a-Cr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fcer2a-Cr2.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4326503333333333</v>
+        <v>0.1430493333333333</v>
       </c>
       <c r="H2">
-        <v>1.297951</v>
+        <v>0.429148</v>
       </c>
       <c r="I2">
-        <v>0.4323484100269978</v>
+        <v>0.1682566467860341</v>
       </c>
       <c r="J2">
-        <v>0.4323484100269978</v>
+        <v>0.1682566467860341</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8151536666666667</v>
+        <v>1.028288333333333</v>
       </c>
       <c r="N2">
-        <v>2.445461</v>
+        <v>3.084865</v>
       </c>
       <c r="O2">
-        <v>0.584193811627398</v>
+        <v>0.5720958559345812</v>
       </c>
       <c r="P2">
-        <v>0.584193811627398</v>
+        <v>0.5720958559345812</v>
       </c>
       <c r="Q2">
-        <v>0.3526765056012222</v>
+        <v>0.1470959605577778</v>
       </c>
       <c r="R2">
-        <v>3.174088550411</v>
+        <v>1.32386364502</v>
       </c>
       <c r="S2">
-        <v>0.252575265604717</v>
+        <v>0.09625893035973869</v>
       </c>
       <c r="T2">
-        <v>0.252575265604717</v>
+        <v>0.09625893035973869</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4326503333333333</v>
+        <v>0.1430493333333333</v>
       </c>
       <c r="H3">
-        <v>1.297951</v>
+        <v>0.429148</v>
       </c>
       <c r="I3">
-        <v>0.4323484100269978</v>
+        <v>0.1682566467860341</v>
       </c>
       <c r="J3">
-        <v>0.4323484100269978</v>
+        <v>0.1682566467860341</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>1.303444</v>
       </c>
       <c r="O3">
-        <v>0.3113784757159743</v>
+        <v>0.2417269186310566</v>
       </c>
       <c r="P3">
-        <v>0.3113784757159743</v>
+        <v>0.2417269186310566</v>
       </c>
       <c r="Q3">
-        <v>0.1879784936937778</v>
+        <v>0.06215226507911111</v>
       </c>
       <c r="R3">
-        <v>1.691806443244</v>
+        <v>0.559370385712</v>
       </c>
       <c r="S3">
-        <v>0.1346239888924316</v>
+        <v>0.0406721607667821</v>
       </c>
       <c r="T3">
-        <v>0.1346239888924317</v>
+        <v>0.0406721607667821</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4326503333333333</v>
+        <v>0.1430493333333333</v>
       </c>
       <c r="H4">
-        <v>1.297951</v>
+        <v>0.429148</v>
       </c>
       <c r="I4">
-        <v>0.4323484100269978</v>
+        <v>0.1682566467860341</v>
       </c>
       <c r="J4">
-        <v>0.4323484100269978</v>
+        <v>0.1682566467860341</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,22 +685,22 @@
         <v>0.205688</v>
       </c>
       <c r="O4">
-        <v>0.04913660725974213</v>
+        <v>0.03814534912077908</v>
       </c>
       <c r="P4">
-        <v>0.04913660725974214</v>
+        <v>0.03814534912077908</v>
       </c>
       <c r="Q4">
-        <v>0.02966366058755556</v>
+        <v>0.009807843758222223</v>
       </c>
       <c r="R4">
-        <v>0.266972945288</v>
+        <v>0.088270593824</v>
       </c>
       <c r="S4">
-        <v>0.02124413402287055</v>
+        <v>0.006418208533544883</v>
       </c>
       <c r="T4">
-        <v>0.02124413402287055</v>
+        <v>0.006418208533544883</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4326503333333333</v>
+        <v>0.1430493333333333</v>
       </c>
       <c r="H5">
-        <v>1.297951</v>
+        <v>0.429148</v>
       </c>
       <c r="I5">
-        <v>0.4323484100269978</v>
+        <v>0.1682566467860341</v>
       </c>
       <c r="J5">
-        <v>0.4323484100269978</v>
+        <v>0.1682566467860341</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07715033333333333</v>
+        <v>0.2660733333333333</v>
       </c>
       <c r="N5">
-        <v>0.231451</v>
+        <v>0.7982199999999999</v>
       </c>
       <c r="O5">
-        <v>0.05529110539688545</v>
+        <v>0.1480318763135831</v>
       </c>
       <c r="P5">
-        <v>0.05529110539688547</v>
+        <v>0.1480318763135831</v>
       </c>
       <c r="Q5">
-        <v>0.03337911743344444</v>
+        <v>0.03806161295111111</v>
       </c>
       <c r="R5">
-        <v>0.300412056901</v>
+        <v>0.34255451656</v>
       </c>
       <c r="S5">
-        <v>0.02390502150697858</v>
+        <v>0.02490734712596844</v>
       </c>
       <c r="T5">
-        <v>0.02390502150697859</v>
+        <v>0.02490734712596844</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4000956666666667</v>
+        <v>0.4000956666666666</v>
       </c>
       <c r="H6">
         <v>1.200287</v>
       </c>
       <c r="I6">
-        <v>0.3998164615043828</v>
+        <v>0.4705981754566455</v>
       </c>
       <c r="J6">
-        <v>0.3998164615043828</v>
+        <v>0.4705981754566455</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8151536666666667</v>
+        <v>1.028288333333333</v>
       </c>
       <c r="N6">
-        <v>2.445461</v>
+        <v>3.084865</v>
       </c>
       <c r="O6">
-        <v>0.584193811627398</v>
+        <v>0.5720958559345812</v>
       </c>
       <c r="P6">
-        <v>0.584193811627398</v>
+        <v>0.5720958559345812</v>
       </c>
       <c r="Q6">
-        <v>0.3261394497007778</v>
+        <v>0.4114137062505555</v>
       </c>
       <c r="R6">
-        <v>2.935255047307</v>
+        <v>3.702723356254999</v>
       </c>
       <c r="S6">
-        <v>0.2335703025976243</v>
+        <v>0.2692272659891218</v>
       </c>
       <c r="T6">
-        <v>0.2335703025976243</v>
+        <v>0.2692272659891218</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.4000956666666667</v>
+        <v>0.4000956666666666</v>
       </c>
       <c r="H7">
         <v>1.200287</v>
       </c>
       <c r="I7">
-        <v>0.3998164615043828</v>
+        <v>0.4705981754566455</v>
       </c>
       <c r="J7">
-        <v>0.3998164615043828</v>
+        <v>0.4705981754566455</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>1.303444</v>
       </c>
       <c r="O7">
-        <v>0.3113784757159743</v>
+        <v>0.2417269186310566</v>
       </c>
       <c r="P7">
-        <v>0.3113784757159743</v>
+        <v>0.2417269186310566</v>
       </c>
       <c r="Q7">
         <v>0.1738340987142222</v>
@@ -883,10 +883,10 @@
         <v>1.564506888428</v>
       </c>
       <c r="S7">
-        <v>0.1244942403493892</v>
+        <v>0.1137562468665322</v>
       </c>
       <c r="T7">
-        <v>0.1244942403493892</v>
+        <v>0.1137562468665323</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.4000956666666667</v>
+        <v>0.4000956666666666</v>
       </c>
       <c r="H8">
         <v>1.200287</v>
       </c>
       <c r="I8">
-        <v>0.3998164615043828</v>
+        <v>0.4705981754566455</v>
       </c>
       <c r="J8">
-        <v>0.3998164615043828</v>
+        <v>0.4705981754566455</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,10 +933,10 @@
         <v>0.205688</v>
       </c>
       <c r="O8">
-        <v>0.04913660725974213</v>
+        <v>0.03814534912077908</v>
       </c>
       <c r="P8">
-        <v>0.04913660725974214</v>
+        <v>0.03814534912077908</v>
       </c>
       <c r="Q8">
         <v>0.02743162582844445</v>
@@ -945,10 +945,10 @@
         <v>0.246884632456</v>
       </c>
       <c r="S8">
-        <v>0.01964562444492067</v>
+        <v>0.01795113169839539</v>
       </c>
       <c r="T8">
-        <v>0.01964562444492067</v>
+        <v>0.01795113169839539</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.4000956666666667</v>
+        <v>0.4000956666666666</v>
       </c>
       <c r="H9">
         <v>1.200287</v>
       </c>
       <c r="I9">
-        <v>0.3998164615043828</v>
+        <v>0.4705981754566455</v>
       </c>
       <c r="J9">
-        <v>0.3998164615043828</v>
+        <v>0.4705981754566455</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.07715033333333333</v>
+        <v>0.2660733333333333</v>
       </c>
       <c r="N9">
-        <v>0.231451</v>
+        <v>0.7982199999999999</v>
       </c>
       <c r="O9">
-        <v>0.05529110539688545</v>
+        <v>0.1480318763135831</v>
       </c>
       <c r="P9">
-        <v>0.05529110539688547</v>
+        <v>0.1480318763135831</v>
       </c>
       <c r="Q9">
-        <v>0.03086751404855556</v>
+        <v>0.1064547876822222</v>
       </c>
       <c r="R9">
-        <v>0.277807626437</v>
+        <v>0.9580930891399998</v>
       </c>
       <c r="S9">
-        <v>0.02210629411244863</v>
+        <v>0.06966353090259601</v>
       </c>
       <c r="T9">
-        <v>0.02210629411244863</v>
+        <v>0.06966353090259601</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.146682</v>
+        <v>0.2017096666666667</v>
       </c>
       <c r="H10">
-        <v>0.440046</v>
+        <v>0.605129</v>
       </c>
       <c r="I10">
-        <v>0.1465796385524109</v>
+        <v>0.2372537595724226</v>
       </c>
       <c r="J10">
-        <v>0.1465796385524109</v>
+        <v>0.2372537595724227</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8151536666666667</v>
+        <v>1.028288333333333</v>
       </c>
       <c r="N10">
-        <v>2.445461</v>
+        <v>3.084865</v>
       </c>
       <c r="O10">
-        <v>0.584193811627398</v>
+        <v>0.5720958559345812</v>
       </c>
       <c r="P10">
-        <v>0.584193811627398</v>
+        <v>0.5720958559345812</v>
       </c>
       <c r="Q10">
-        <v>0.119568370134</v>
+        <v>0.2074156969538889</v>
       </c>
       <c r="R10">
-        <v>1.076115331206</v>
+        <v>1.866741272585</v>
       </c>
       <c r="S10">
-        <v>0.08563091775289923</v>
+        <v>0.1357318926562825</v>
       </c>
       <c r="T10">
-        <v>0.08563091775289924</v>
+        <v>0.1357318926562825</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.146682</v>
+        <v>0.2017096666666667</v>
       </c>
       <c r="H11">
-        <v>0.440046</v>
+        <v>0.605129</v>
       </c>
       <c r="I11">
-        <v>0.1465796385524109</v>
+        <v>0.2372537595724226</v>
       </c>
       <c r="J11">
-        <v>0.1465796385524109</v>
+        <v>0.2372537595724227</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>1.303444</v>
       </c>
       <c r="O11">
-        <v>0.3113784757159743</v>
+        <v>0.2417269186310566</v>
       </c>
       <c r="P11">
-        <v>0.3113784757159743</v>
+        <v>0.2417269186310566</v>
       </c>
       <c r="Q11">
-        <v>0.063730590936</v>
+        <v>0.08763908491955556</v>
       </c>
       <c r="R11">
-        <v>0.5735753184240001</v>
+        <v>0.788751764276</v>
       </c>
       <c r="S11">
-        <v>0.04564174442344816</v>
+        <v>0.05735062023507527</v>
       </c>
       <c r="T11">
-        <v>0.04564174442344818</v>
+        <v>0.05735062023507528</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.146682</v>
+        <v>0.2017096666666667</v>
       </c>
       <c r="H12">
-        <v>0.440046</v>
+        <v>0.605129</v>
       </c>
       <c r="I12">
-        <v>0.1465796385524109</v>
+        <v>0.2372537595724226</v>
       </c>
       <c r="J12">
-        <v>0.1465796385524109</v>
+        <v>0.2372537595724227</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,22 +1181,22 @@
         <v>0.205688</v>
       </c>
       <c r="O12">
-        <v>0.04913660725974213</v>
+        <v>0.03814534912077908</v>
       </c>
       <c r="P12">
-        <v>0.04913660725974214</v>
+        <v>0.03814534912077908</v>
       </c>
       <c r="Q12">
-        <v>0.010056909072</v>
+        <v>0.01382975263911111</v>
       </c>
       <c r="R12">
-        <v>0.09051218164800001</v>
+        <v>0.124467773752</v>
       </c>
       <c r="S12">
-        <v>0.007202426131824771</v>
+        <v>0.009050127489107444</v>
       </c>
       <c r="T12">
-        <v>0.007202426131824774</v>
+        <v>0.009050127489107445</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.146682</v>
+        <v>0.2017096666666667</v>
       </c>
       <c r="H13">
-        <v>0.440046</v>
+        <v>0.605129</v>
       </c>
       <c r="I13">
-        <v>0.1465796385524109</v>
+        <v>0.2372537595724226</v>
       </c>
       <c r="J13">
-        <v>0.1465796385524109</v>
+        <v>0.2372537595724227</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.07715033333333333</v>
+        <v>0.2660733333333333</v>
       </c>
       <c r="N13">
-        <v>0.231451</v>
+        <v>0.7982199999999999</v>
       </c>
       <c r="O13">
-        <v>0.05529110539688545</v>
+        <v>0.1480318763135831</v>
       </c>
       <c r="P13">
-        <v>0.05529110539688547</v>
+        <v>0.1480318763135831</v>
       </c>
       <c r="Q13">
-        <v>0.011316565194</v>
+        <v>0.05366956337555556</v>
       </c>
       <c r="R13">
-        <v>0.101849086746</v>
+        <v>0.48302607038</v>
       </c>
       <c r="S13">
-        <v>0.008104550244238725</v>
+        <v>0.03512111919195745</v>
       </c>
       <c r="T13">
-        <v>0.00810455024423873</v>
+        <v>0.03512111919195745</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.02127033333333334</v>
+        <v>0.1053306666666667</v>
       </c>
       <c r="H14">
-        <v>0.06381100000000001</v>
+        <v>0.315992</v>
       </c>
       <c r="I14">
-        <v>0.02125548991620852</v>
+        <v>0.1238914181848977</v>
       </c>
       <c r="J14">
-        <v>0.02125548991620852</v>
+        <v>0.1238914181848977</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8151536666666667</v>
+        <v>1.028288333333333</v>
       </c>
       <c r="N14">
-        <v>2.445461</v>
+        <v>3.084865</v>
       </c>
       <c r="O14">
-        <v>0.584193811627398</v>
+        <v>0.5720958559345812</v>
       </c>
       <c r="P14">
-        <v>0.584193811627398</v>
+        <v>0.5720958559345812</v>
       </c>
       <c r="Q14">
-        <v>0.01733859020788889</v>
+        <v>0.1083102956755555</v>
       </c>
       <c r="R14">
-        <v>0.156047311871</v>
+        <v>0.97479266108</v>
       </c>
       <c r="S14">
-        <v>0.01241732567215758</v>
+        <v>0.0708777669294382</v>
       </c>
       <c r="T14">
-        <v>0.01241732567215758</v>
+        <v>0.0708777669294382</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.02127033333333334</v>
+        <v>0.1053306666666667</v>
       </c>
       <c r="H15">
-        <v>0.06381100000000001</v>
+        <v>0.315992</v>
       </c>
       <c r="I15">
-        <v>0.02125548991620852</v>
+        <v>0.1238914181848977</v>
       </c>
       <c r="J15">
-        <v>0.02125548991620852</v>
+        <v>0.1238914181848977</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>1.303444</v>
       </c>
       <c r="O15">
-        <v>0.3113784757159743</v>
+        <v>0.2417269186310566</v>
       </c>
       <c r="P15">
-        <v>0.3113784757159743</v>
+        <v>0.2417269186310566</v>
       </c>
       <c r="Q15">
-        <v>0.009241562787111112</v>
+        <v>0.04576420849422223</v>
       </c>
       <c r="R15">
-        <v>0.08317406508400001</v>
+        <v>0.411877876448</v>
       </c>
       <c r="S15">
-        <v>0.00661850205070527</v>
+        <v>0.02994789076266698</v>
       </c>
       <c r="T15">
-        <v>0.006618502050705271</v>
+        <v>0.02994789076266698</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.02127033333333334</v>
+        <v>0.1053306666666667</v>
       </c>
       <c r="H16">
-        <v>0.06381100000000001</v>
+        <v>0.315992</v>
       </c>
       <c r="I16">
-        <v>0.02125548991620852</v>
+        <v>0.1238914181848977</v>
       </c>
       <c r="J16">
-        <v>0.02125548991620852</v>
+        <v>0.1238914181848977</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,22 +1429,22 @@
         <v>0.205688</v>
       </c>
       <c r="O16">
-        <v>0.04913660725974213</v>
+        <v>0.03814534912077908</v>
       </c>
       <c r="P16">
-        <v>0.04913660725974214</v>
+        <v>0.03814534912077908</v>
       </c>
       <c r="Q16">
-        <v>0.001458350774222223</v>
+        <v>0.007221751388444445</v>
       </c>
       <c r="R16">
-        <v>0.013125156968</v>
+        <v>0.064995762496</v>
       </c>
       <c r="S16">
-        <v>0.001044422660126147</v>
+        <v>0.004725881399731362</v>
       </c>
       <c r="T16">
-        <v>0.001044422660126147</v>
+        <v>0.004725881399731362</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.02127033333333334</v>
+        <v>0.1053306666666667</v>
       </c>
       <c r="H17">
-        <v>0.06381100000000001</v>
+        <v>0.315992</v>
       </c>
       <c r="I17">
-        <v>0.02125548991620852</v>
+        <v>0.1238914181848977</v>
       </c>
       <c r="J17">
-        <v>0.02125548991620852</v>
+        <v>0.1238914181848977</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.07715033333333333</v>
+        <v>0.2660733333333333</v>
       </c>
       <c r="N17">
-        <v>0.231451</v>
+        <v>0.7982199999999999</v>
       </c>
       <c r="O17">
-        <v>0.05529110539688545</v>
+        <v>0.1480318763135831</v>
       </c>
       <c r="P17">
-        <v>0.05529110539688547</v>
+        <v>0.1480318763135831</v>
       </c>
       <c r="Q17">
-        <v>0.001641013306777778</v>
+        <v>0.02802568158222222</v>
       </c>
       <c r="R17">
-        <v>0.014769119761</v>
+        <v>0.25223113424</v>
       </c>
       <c r="S17">
-        <v>0.001175239533219521</v>
+        <v>0.01833987909306118</v>
       </c>
       <c r="T17">
-        <v>0.001175239533219522</v>
+        <v>0.01833987909306118</v>
       </c>
     </row>
   </sheetData>
